--- a/res/testcase/monthticket/waterNumInformation/MonthTicketChargeWaterNum.xlsx
+++ b/res/testcase/monthticket/waterNumInformation/MonthTicketChargeWaterNum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" activeTab="3"/>
+    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="action" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t>动作</t>
   </si>
@@ -373,7 +373,7 @@
     <t>MonthTicketChargeWaterNumPage.选择停车场</t>
   </si>
   <si>
-    <t>出租车停车场;on</t>
+    <t>$全局变量.停车场名称;on</t>
   </si>
   <si>
     <t>11</t>
@@ -403,6 +403,27 @@
     <t>操作成功，请打开右上角下载中心界面进行下载</t>
   </si>
   <si>
+    <t>选择搜索类型</t>
+  </si>
+  <si>
+    <t>MonthTicketChargeWaterNumPage.选择搜索类型</t>
+  </si>
+  <si>
+    <t>月票名称</t>
+  </si>
+  <si>
+    <t>月票名称搜索框</t>
+  </si>
+  <si>
+    <t>MonthTicketChargeWaterNumPage.月票名称搜索框</t>
+  </si>
+  <si>
+    <t>${001_addTicketBill}.月票名称</t>
+  </si>
+  <si>
+    <t>搜索按钮</t>
+  </si>
+  <si>
     <t>点击同步详情</t>
   </si>
   <si>
@@ -419,6 +440,9 @@
   </si>
   <si>
     <t>2月票同步详情界面</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>点击关闭</t>
@@ -432,10 +456,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -459,43 +483,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -511,8 +498,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -535,10 +559,47 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,50 +619,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -618,31 +642,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,145 +804,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,6 +875,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -871,54 +919,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,6 +948,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -956,149 +980,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,6 +1133,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1243,7 +1270,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1525,369 +1552,369 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="77" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="20.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="77" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="15" spans="1:2">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="9" customFormat="1" ht="15" spans="1:2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:2">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="9" customFormat="1" spans="1:2">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" spans="1:2">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="9" customFormat="1" spans="1:2">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" spans="1:2">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="9" customFormat="1" spans="1:2">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:2">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="9" customFormat="1" spans="1:2">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" spans="1:2">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="9" customFormat="1" spans="1:2">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:2">
-      <c r="A7" s="10" t="s">
+    <row r="7" s="9" customFormat="1" spans="1:2">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:2">
-      <c r="A8" s="10" t="s">
+    <row r="8" s="9" customFormat="1" spans="1:2">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:2">
-      <c r="A9" s="10" t="s">
+    <row r="9" s="9" customFormat="1" spans="1:2">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:2">
-      <c r="A10" s="10" t="s">
+    <row r="10" s="9" customFormat="1" spans="1:2">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" spans="1:2">
-      <c r="A11" s="10" t="s">
+    <row r="11" s="9" customFormat="1" spans="1:2">
+      <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="1" spans="1:2">
-      <c r="A12" s="10" t="s">
+    <row r="12" s="9" customFormat="1" spans="1:2">
+      <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="1" spans="1:2">
-      <c r="A13" s="10" t="s">
+    <row r="13" s="9" customFormat="1" spans="1:2">
+      <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" s="8" customFormat="1" spans="1:2">
-      <c r="A14" s="10" t="s">
+    <row r="14" s="9" customFormat="1" spans="1:2">
+      <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" s="8" customFormat="1" spans="1:2">
-      <c r="A15" s="10" t="s">
+    <row r="15" s="9" customFormat="1" spans="1:2">
+      <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" s="8" customFormat="1" spans="1:2">
-      <c r="A16" s="10" t="s">
+    <row r="16" s="9" customFormat="1" spans="1:2">
+      <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" s="8" customFormat="1" ht="27" spans="1:2">
-      <c r="A17" s="10" t="s">
+    <row r="17" s="9" customFormat="1" ht="27" spans="1:2">
+      <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="8" customFormat="1" spans="1:2">
-      <c r="A18" s="10" t="s">
+    <row r="18" s="9" customFormat="1" spans="1:2">
+      <c r="A18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="1" spans="1:2">
-      <c r="A19" s="10" t="s">
+    <row r="19" s="9" customFormat="1" spans="1:2">
+      <c r="A19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" s="8" customFormat="1" spans="1:2">
-      <c r="A20" s="10" t="s">
+    <row r="20" s="9" customFormat="1" spans="1:2">
+      <c r="A20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" s="8" customFormat="1" spans="1:2">
-      <c r="A21" s="10" t="s">
+    <row r="21" s="9" customFormat="1" spans="1:2">
+      <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="1" ht="27" spans="1:2">
-      <c r="A22" s="10" t="s">
+    <row r="22" s="9" customFormat="1" ht="27" spans="1:2">
+      <c r="A22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" s="8" customFormat="1" spans="1:2">
-      <c r="A23" s="10" t="s">
+    <row r="23" s="9" customFormat="1" spans="1:2">
+      <c r="A23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" s="8" customFormat="1" spans="1:2">
-      <c r="A24" s="10" t="s">
+    <row r="24" s="9" customFormat="1" spans="1:2">
+      <c r="A24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" s="8" customFormat="1" spans="1:2">
-      <c r="A25" s="10" t="s">
+    <row r="25" s="9" customFormat="1" spans="1:2">
+      <c r="A25" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" s="8" customFormat="1" ht="27" spans="1:2">
-      <c r="A26" s="10" t="s">
+    <row r="26" s="9" customFormat="1" ht="27" spans="1:2">
+      <c r="A26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" s="8" customFormat="1" spans="1:2">
-      <c r="A27" s="10" t="s">
+    <row r="27" s="9" customFormat="1" spans="1:2">
+      <c r="A27" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="12"/>
-    </row>
-    <row r="28" s="8" customFormat="1" spans="1:2">
-      <c r="A28" s="13" t="s">
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" s="9" customFormat="1" spans="1:2">
+      <c r="A28" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="14"/>
-    </row>
-    <row r="29" s="8" customFormat="1" spans="1:2">
-      <c r="A29" s="13" t="s">
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" s="9" customFormat="1" spans="1:2">
+      <c r="A29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" s="8" customFormat="1" spans="1:2">
-      <c r="A30" s="13" t="s">
+    <row r="30" s="9" customFormat="1" spans="1:2">
+      <c r="A30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" s="8" customFormat="1" spans="1:2">
-      <c r="A31" s="13" t="s">
+    <row r="31" s="9" customFormat="1" spans="1:2">
+      <c r="A31" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" s="8" customFormat="1" spans="1:2">
-      <c r="A32" s="13" t="s">
+    <row r="32" s="9" customFormat="1" spans="1:2">
+      <c r="A32" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" s="8" customFormat="1" spans="1:2">
-      <c r="A33" s="13" t="s">
+    <row r="33" s="9" customFormat="1" spans="1:2">
+      <c r="A33" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" s="8" customFormat="1" spans="1:2">
-      <c r="A34" s="13" t="s">
+    <row r="34" s="9" customFormat="1" spans="1:2">
+      <c r="A34" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" s="8" customFormat="1" spans="1:2">
-      <c r="A35" s="13" t="s">
+    <row r="35" s="9" customFormat="1" spans="1:2">
+      <c r="A35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" s="8" customFormat="1" spans="1:2">
-      <c r="A36" s="13" t="s">
+    <row r="36" s="9" customFormat="1" spans="1:2">
+      <c r="A36" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" s="8" customFormat="1" spans="1:2">
-      <c r="A37" s="13" t="s">
+    <row r="37" s="9" customFormat="1" spans="1:2">
+      <c r="A37" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" s="8" customFormat="1" spans="1:2">
-      <c r="A38" s="13" t="s">
+    <row r="38" s="9" customFormat="1" spans="1:2">
+      <c r="A38" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" s="8" customFormat="1" spans="1:2">
-      <c r="A39" s="13" t="s">
+    <row r="39" s="9" customFormat="1" spans="1:2">
+      <c r="A39" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" s="8" customFormat="1" spans="1:2">
-      <c r="A40" s="13" t="s">
+    <row r="40" s="9" customFormat="1" spans="1:2">
+      <c r="A40" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" s="8" customFormat="1" spans="1:2">
-      <c r="A41" s="13" t="s">
+    <row r="41" s="9" customFormat="1" spans="1:2">
+      <c r="A41" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" s="8" customFormat="1" spans="1:2">
-      <c r="A42" s="13" t="s">
+    <row r="42" s="9" customFormat="1" spans="1:2">
+      <c r="A42" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" s="8" customFormat="1" spans="1:2">
-      <c r="A43" s="13" t="s">
+    <row r="43" s="9" customFormat="1" spans="1:2">
+      <c r="A43" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" s="8" customFormat="1" spans="1:2">
-      <c r="A44" s="13" t="s">
+    <row r="44" s="9" customFormat="1" spans="1:2">
+      <c r="A44" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1903,8 +1930,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2021,7 +2048,7 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>104</v>
       </c>
       <c r="E7" s="2"/>
@@ -2036,7 +2063,7 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E8" s="2"/>
@@ -2051,7 +2078,7 @@
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E9" s="2"/>
@@ -2075,7 +2102,7 @@
       <c r="A11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2087,13 +2114,13 @@
       <c r="E11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2103,7 +2130,7 @@
       <c r="E12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
@@ -2119,7 +2146,7 @@
       <c r="E13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2138,8 +2165,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2310,7 +2337,7 @@
       <c r="A11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2322,7 +2349,7 @@
       <c r="E11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
@@ -2338,7 +2365,7 @@
       <c r="E12" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2355,10 +2382,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2469,84 +2496,133 @@
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:6">
+      <c r="E7" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:6">
+        <v>110</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" ht="27" customHeight="1" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>133</v>
+      <c r="B11" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" ht="27" customHeight="1" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C8 C9 C10 C2:C4 C6:C7 C11:C15 C16:C26 C27:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C6 C10 C11 C12 C13 C2:C4 C7:C9 C14:C18 C19:C29 C30:C1048576">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
